--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_62_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_62_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.5154413685875348, 3.929028311176875]</t>
+          <t>[3.5165924676634894, 3.9278772121009204]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.06828381705076758, 0.33650832394925345]</t>
+          <t>[0.06822336789770667, 0.33656877310231437]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.003938604530787204</v>
+        <v>0.003953447894292195</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003938604530787204</v>
+        <v>0.003953447894292195</v>
       </c>
       <c r="W2" t="n">
         <v>6.910510510510765</v>
